--- a/data/trans_orig/P2A_fisi_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P2A_fisi_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>57602</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>42363</v>
+        <v>45102</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>73545</v>
+        <v>74646</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0986102932077771</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07252234880213188</v>
+        <v>0.0772100301090608</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1259028303534997</v>
+        <v>0.1277883015828156</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>93</v>
@@ -765,19 +765,19 @@
         <v>98131</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>81070</v>
+        <v>78928</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>118828</v>
+        <v>118632</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1063943667848762</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08789702653274939</v>
+        <v>0.08557472600006827</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1288340833356369</v>
+        <v>0.1286216904905858</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>149</v>
@@ -786,19 +786,19 @@
         <v>155733</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>132716</v>
+        <v>133316</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>179623</v>
+        <v>180437</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1033760617484219</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08809731948339085</v>
+        <v>0.08849556071453564</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1192338054629182</v>
+        <v>0.1197741141893531</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>526539</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>510596</v>
+        <v>509495</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>541778</v>
+        <v>539039</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9013897067922229</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8740971696465005</v>
+        <v>0.8722116984171847</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9274776511978685</v>
+        <v>0.9227899698909393</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>792</v>
@@ -836,19 +836,19 @@
         <v>824202</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>803505</v>
+        <v>803701</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>841263</v>
+        <v>843405</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8936056332151238</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8711659166643629</v>
+        <v>0.8713783095094142</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9121029734672506</v>
+        <v>0.9144252739999316</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1310</v>
@@ -857,19 +857,19 @@
         <v>1350741</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1326851</v>
+        <v>1326037</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1373758</v>
+        <v>1373158</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8966239382515782</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8807661945370824</v>
+        <v>0.8802258858106468</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9119026805166094</v>
+        <v>0.9115044392854642</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>57893</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43699</v>
+        <v>44423</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>73656</v>
+        <v>75407</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05370954006641741</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04054108642588402</v>
+        <v>0.04121306441789741</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06833366378603807</v>
+        <v>0.06995796494079323</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -982,19 +982,19 @@
         <v>51033</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>38490</v>
+        <v>38628</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>65874</v>
+        <v>66850</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04825652756623085</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03639627386717578</v>
+        <v>0.03652676282900302</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06229024165042931</v>
+        <v>0.06321255779110632</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>105</v>
@@ -1003,19 +1003,19 @@
         <v>108926</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>90259</v>
+        <v>91621</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>130303</v>
+        <v>132373</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05100902426721872</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04226723568940358</v>
+        <v>0.04290507301845555</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0610194708268932</v>
+        <v>0.06198894224970419</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1020001</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1004238</v>
+        <v>1002487</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1034195</v>
+        <v>1033471</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9462904599335826</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9316663362139622</v>
+        <v>0.9300420350592068</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9594589135741162</v>
+        <v>0.9587869355821026</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>981</v>
@@ -1053,19 +1053,19 @@
         <v>1006505</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>991664</v>
+        <v>990688</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1019048</v>
+        <v>1018910</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9517434724337691</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9377097583495707</v>
+        <v>0.9367874422088937</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9636037261328243</v>
+        <v>0.963473237170997</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1978</v>
@@ -1074,19 +1074,19 @@
         <v>2026506</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2005129</v>
+        <v>2003059</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2045173</v>
+        <v>2043811</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9489909757327812</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9389805291731067</v>
+        <v>0.9380110577502966</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9577327643105964</v>
+        <v>0.9570949269815445</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>32376</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23510</v>
+        <v>21745</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45127</v>
+        <v>44182</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02886604862821142</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02096156036479532</v>
+        <v>0.01938786239863717</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04023452173084242</v>
+        <v>0.0393917576900811</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -1199,19 +1199,19 @@
         <v>44021</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31997</v>
+        <v>32432</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59214</v>
+        <v>58818</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04428970018379253</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03219220905956128</v>
+        <v>0.03262971374193083</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05957458357712505</v>
+        <v>0.05917666122845515</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -1220,19 +1220,19 @@
         <v>76397</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>61359</v>
+        <v>59263</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>94005</v>
+        <v>93765</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03611253060265941</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02900378945954708</v>
+        <v>0.02801309825391196</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04443539714456297</v>
+        <v>0.04432209057236866</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1089218</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1076467</v>
+        <v>1077412</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1098084</v>
+        <v>1099849</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9711339513717886</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9597654782691576</v>
+        <v>0.9606082423099189</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9790384396352046</v>
+        <v>0.9806121376013628</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>940</v>
@@ -1270,19 +1270,19 @@
         <v>949919</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>934726</v>
+        <v>935122</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>961943</v>
+        <v>961508</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9557102998162075</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9404254164228749</v>
+        <v>0.9408233387715449</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9678077909404388</v>
+        <v>0.9673702862580692</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2011</v>
@@ -1291,19 +1291,19 @@
         <v>2039137</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2021529</v>
+        <v>2021769</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2054175</v>
+        <v>2056271</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9638874693973406</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9555646028554369</v>
+        <v>0.9556779094276312</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9709962105404528</v>
+        <v>0.9719869017460877</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>11463</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6079</v>
+        <v>5486</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19957</v>
+        <v>20295</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02563255514666561</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01359345821450046</v>
+        <v>0.01226839192438111</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0446268050134604</v>
+        <v>0.04538255962275052</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -1416,19 +1416,19 @@
         <v>13454</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7252</v>
+        <v>7503</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22112</v>
+        <v>22051</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03943559193631062</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02125687041201783</v>
+        <v>0.02199189002646503</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0648143656531798</v>
+        <v>0.0646366794432454</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -1437,19 +1437,19 @@
         <v>24917</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16681</v>
+        <v>15991</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>35933</v>
+        <v>35521</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03160575473773364</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02115911972643659</v>
+        <v>0.02028363429129633</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04557956083894463</v>
+        <v>0.04505651172060706</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>435737</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>427243</v>
+        <v>426905</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>441121</v>
+        <v>441714</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9743674448533344</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9553731949865392</v>
+        <v>0.9546174403772494</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9864065417854994</v>
+        <v>0.9877316080756189</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>326</v>
@@ -1487,19 +1487,19 @@
         <v>327704</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>319046</v>
+        <v>319107</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>333906</v>
+        <v>333655</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9605644080636894</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9351856343468197</v>
+        <v>0.9353633205567543</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9787431295879822</v>
+        <v>0.9780081099735349</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>751</v>
@@ -1508,19 +1508,19 @@
         <v>763441</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>752425</v>
+        <v>752837</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>771677</v>
+        <v>772367</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9683942452622664</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9544204391610556</v>
+        <v>0.9549434882793925</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9788408802735634</v>
+        <v>0.979716365708703</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>159334</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>136768</v>
+        <v>134789</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>186896</v>
+        <v>184726</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04931687579156184</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0423320650648063</v>
+        <v>0.04171976807583392</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05784755913469109</v>
+        <v>0.05717617567761886</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>195</v>
@@ -1633,19 +1633,19 @@
         <v>206639</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>175162</v>
+        <v>180504</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>234776</v>
+        <v>238171</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0623351922148335</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05283972190762114</v>
+        <v>0.05445119755791489</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07082285176951042</v>
+        <v>0.07184724749126661</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>352</v>
@@ -1654,19 +1654,19 @@
         <v>365974</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>331856</v>
+        <v>329438</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>403394</v>
+        <v>406310</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05590970256023042</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05069752453557825</v>
+        <v>0.05032819153279841</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06162637178502658</v>
+        <v>0.06207189456757731</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3071495</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3043933</v>
+        <v>3046103</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3094061</v>
+        <v>3096040</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9506831242084381</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9421524408653088</v>
+        <v>0.9428238243223812</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9576679349351938</v>
+        <v>0.9582802319241661</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3039</v>
@@ -1704,19 +1704,19 @@
         <v>3108330</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3080193</v>
+        <v>3076798</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3139807</v>
+        <v>3134465</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9376648077851665</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9291771482304895</v>
+        <v>0.9281527525087334</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9471602780923787</v>
+        <v>0.9455488024420853</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6050</v>
@@ -1725,19 +1725,19 @@
         <v>6179824</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6142404</v>
+        <v>6139488</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6213942</v>
+        <v>6216360</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9440902974397696</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9383736282149734</v>
+        <v>0.9379281054324227</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9493024754644217</v>
+        <v>0.9496718084672016</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>98864</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>80677</v>
+        <v>79362</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>120379</v>
+        <v>118491</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09470341065713724</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07728123844098955</v>
+        <v>0.07602155228978362</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1153127934683152</v>
+        <v>0.1135044552335291</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>105</v>
@@ -2090,19 +2090,19 @@
         <v>116064</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>95529</v>
+        <v>95840</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>138814</v>
+        <v>139277</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1036352139445566</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08529936485886912</v>
+        <v>0.08557690765168971</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1239493291210852</v>
+        <v>0.1243626154550337</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>196</v>
@@ -2111,19 +2111,19 @@
         <v>214928</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>184866</v>
+        <v>187627</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>245952</v>
+        <v>245530</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09932615205247618</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08543312519257949</v>
+        <v>0.08670950236015225</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1136635332764229</v>
+        <v>0.1134684942010647</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>945071</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>923556</v>
+        <v>925444</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>963258</v>
+        <v>964573</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9052965893428627</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8846872065316848</v>
+        <v>0.8864955447664709</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9227187615590106</v>
+        <v>0.9239784477102163</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>926</v>
@@ -2161,19 +2161,19 @@
         <v>1003864</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>981114</v>
+        <v>980651</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1024399</v>
+        <v>1024088</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8963647860554435</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8760506708789153</v>
+        <v>0.8756373845449662</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.914700635141131</v>
+        <v>0.9144230923483103</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1813</v>
@@ -2182,19 +2182,19 @@
         <v>1948935</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1917911</v>
+        <v>1918333</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1978997</v>
+        <v>1976236</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9006738479475238</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8863364667235768</v>
+        <v>0.8865315057989352</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9145668748074204</v>
+        <v>0.9132904976398475</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>79748</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>61896</v>
+        <v>62279</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>100826</v>
+        <v>100137</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08161928962493996</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06334833485462787</v>
+        <v>0.06374086805504998</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1031922237313527</v>
+        <v>0.1024871412662338</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>99</v>
@@ -2307,19 +2307,19 @@
         <v>106377</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>87297</v>
+        <v>88190</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>127465</v>
+        <v>129210</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09721386229556811</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07977736681795114</v>
+        <v>0.08059270470737707</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1164848516077233</v>
+        <v>0.1180796995513946</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>168</v>
@@ -2328,19 +2328,19 @@
         <v>186125</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>159105</v>
+        <v>159335</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>219106</v>
+        <v>214575</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08985772097605343</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07681282547110482</v>
+        <v>0.07692368870427599</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1057799949209179</v>
+        <v>0.1035923904199669</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>897325</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>876247</v>
+        <v>876936</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>915177</v>
+        <v>914794</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9183807103750601</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8968077762686475</v>
+        <v>0.8975128587337663</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9366516651453722</v>
+        <v>0.93625913194495</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>921</v>
@@ -2378,19 +2378,19 @@
         <v>987885</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>966797</v>
+        <v>965052</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1006965</v>
+        <v>1006072</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9027861377044319</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8835151483922769</v>
+        <v>0.8819203004486053</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.920222633182049</v>
+        <v>0.9194072952926229</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1776</v>
@@ -2399,19 +2399,19 @@
         <v>1885210</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1852229</v>
+        <v>1856760</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1912230</v>
+        <v>1912000</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9101422790239466</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8942200050790822</v>
+        <v>0.8964076095800331</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9231871745288952</v>
+        <v>0.9230763112957241</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>48287</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36354</v>
+        <v>36555</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63053</v>
+        <v>64404</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0545548182660471</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0410725247357062</v>
+        <v>0.041299812990774</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07123652985219565</v>
+        <v>0.07276293127121526</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>55</v>
@@ -2524,19 +2524,19 @@
         <v>58174</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>43334</v>
+        <v>43711</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>73982</v>
+        <v>73237</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06642470717126697</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04947937263346955</v>
+        <v>0.04991041405491083</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0844742508803679</v>
+        <v>0.08362314630885385</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>102</v>
@@ -2545,19 +2545,19 @@
         <v>106462</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>87599</v>
+        <v>88512</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>129797</v>
+        <v>129126</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06045835301870466</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04974662248556085</v>
+        <v>0.05026517236044872</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07371027292271398</v>
+        <v>0.07332882480034557</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>836828</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>822062</v>
+        <v>820711</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>848761</v>
+        <v>848560</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9454451817339529</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9287634701478042</v>
+        <v>0.9272370687287848</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9589274752642937</v>
+        <v>0.9587001870092259</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>766</v>
@@ -2595,19 +2595,19 @@
         <v>817622</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>801814</v>
+        <v>802559</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>832462</v>
+        <v>832085</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.933575292828733</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9155257491196321</v>
+        <v>0.9163768536911462</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9505206273665305</v>
+        <v>0.9500895859450892</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1549</v>
@@ -2616,19 +2616,19 @@
         <v>1654449</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1631114</v>
+        <v>1631785</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1673312</v>
+        <v>1672399</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9395416469812954</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9262897270772863</v>
+        <v>0.9266711751996549</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9502533775144392</v>
+        <v>0.9497348276395515</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>22270</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13266</v>
+        <v>13359</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34738</v>
+        <v>34024</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04427216219830197</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02637170127749093</v>
+        <v>0.02655784657696555</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06905749290929666</v>
+        <v>0.06763992064213616</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -2741,19 +2741,19 @@
         <v>39684</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28503</v>
+        <v>29297</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54944</v>
+        <v>57394</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08765375427254309</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06295691102669218</v>
+        <v>0.06470993592007383</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.12135907188774</v>
+        <v>0.1267725260557724</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>53</v>
@@ -2762,19 +2762,19 @@
         <v>61954</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>46447</v>
+        <v>46509</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>83893</v>
+        <v>79275</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06482170022771273</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04859722345857984</v>
+        <v>0.04866173613697659</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08777614879839639</v>
+        <v>0.08294449986382856</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>480753</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>468285</v>
+        <v>468999</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>489757</v>
+        <v>489664</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.955727837801698</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9309425070907033</v>
+        <v>0.9323600793578636</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9736282987225092</v>
+        <v>0.9734421534230343</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>378</v>
@@ -2812,19 +2812,19 @@
         <v>413052</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>397792</v>
+        <v>395342</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>424233</v>
+        <v>423439</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9123462457274569</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8786409281122599</v>
+        <v>0.8732274739442276</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9370430889733078</v>
+        <v>0.9352900640799262</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>820</v>
@@ -2833,19 +2833,19 @@
         <v>893804</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>871865</v>
+        <v>876483</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>909311</v>
+        <v>909249</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9351782997722873</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9122238512016037</v>
+        <v>0.9170555001361714</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9514027765414201</v>
+        <v>0.9513382638630234</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>249169</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>219578</v>
+        <v>222819</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>282480</v>
+        <v>282930</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07308851434686199</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06440858770251731</v>
+        <v>0.0653591294145297</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08285955049397063</v>
+        <v>0.0829916245259839</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>293</v>
@@ -2958,19 +2958,19 @@
         <v>320300</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>285589</v>
+        <v>284666</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>355812</v>
+        <v>354863</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09041068661405301</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08061276793302546</v>
+        <v>0.08035239375458796</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1004345323185815</v>
+        <v>0.1001667397842275</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>519</v>
@@ -2979,19 +2979,19 @@
         <v>569469</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>526602</v>
+        <v>522076</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>620738</v>
+        <v>622184</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0819160187863584</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07574969488362519</v>
+        <v>0.0750987133292453</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08929082246548127</v>
+        <v>0.08949877207602612</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3159976</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3126665</v>
+        <v>3126215</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3189567</v>
+        <v>3186326</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.926911485653138</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9171404495060294</v>
+        <v>0.917008375474016</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9355914122974827</v>
+        <v>0.9346408705854703</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2991</v>
@@ -3029,19 +3029,19 @@
         <v>3222422</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3186910</v>
+        <v>3187859</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3257133</v>
+        <v>3258056</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.909589313385947</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8995654676814185</v>
+        <v>0.8998332602157721</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9193872320669745</v>
+        <v>0.9196476062454119</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5958</v>
@@ -3050,19 +3050,19 @@
         <v>6382398</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6331129</v>
+        <v>6329683</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6425265</v>
+        <v>6429791</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9180839812136417</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9107091775345187</v>
+        <v>0.9105012279239737</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9242503051163748</v>
+        <v>0.9249012866707547</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>82092</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>66102</v>
+        <v>65552</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>100316</v>
+        <v>101570</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07277670679614739</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05860121579272964</v>
+        <v>0.05811405177310185</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0889326004460714</v>
+        <v>0.09004413764088161</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>101</v>
@@ -3415,19 +3415,19 @@
         <v>113432</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>93479</v>
+        <v>94074</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>136390</v>
+        <v>135731</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09005638060567658</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07421536839788735</v>
+        <v>0.0746879266008617</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1082838510094498</v>
+        <v>0.1077608210504284</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>179</v>
@@ -3436,19 +3436,19 @@
         <v>195523</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>168243</v>
+        <v>168770</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>224630</v>
+        <v>227146</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0818926316226046</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07046650411831896</v>
+        <v>0.07068749066488764</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09408373576561686</v>
+        <v>0.09513716724082226</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1045905</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1027681</v>
+        <v>1026427</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1061895</v>
+        <v>1062445</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9272232932038525</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9110673995539286</v>
+        <v>0.9099558623591182</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9413987842072703</v>
+        <v>0.9418859482268982</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1087</v>
@@ -3486,19 +3486,19 @@
         <v>1146129</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1123171</v>
+        <v>1123830</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1166082</v>
+        <v>1165487</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9099436193943234</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8917161489905502</v>
+        <v>0.8922391789495716</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9257846316021127</v>
+        <v>0.9253120733991382</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2075</v>
@@ -3507,19 +3507,19 @@
         <v>2192035</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2162928</v>
+        <v>2160412</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2219315</v>
+        <v>2218788</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9181073683773954</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9059162642343831</v>
+        <v>0.9048628327591777</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.929533495881681</v>
+        <v>0.9293125093351121</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>41531</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30220</v>
+        <v>28995</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55888</v>
+        <v>54620</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04569744462333834</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03325153496118789</v>
+        <v>0.03190433493124685</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06149510178476594</v>
+        <v>0.06009928920844376</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>55</v>
@@ -3632,19 +3632,19 @@
         <v>61633</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47237</v>
+        <v>48480</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>79862</v>
+        <v>79678</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06123643467438913</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04693265876216242</v>
+        <v>0.04816804243326897</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07934826717513044</v>
+        <v>0.07916523342763634</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>95</v>
@@ -3653,19 +3653,19 @@
         <v>103164</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>83751</v>
+        <v>83543</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>123259</v>
+        <v>124251</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05386306306661771</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04372714579230299</v>
+        <v>0.04361894004566776</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06435501348812039</v>
+        <v>0.0648727356968485</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>867294</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>852937</v>
+        <v>854205</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>878605</v>
+        <v>879830</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9543025553766616</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9385048982152341</v>
+        <v>0.9399007107915562</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9667484650388121</v>
+        <v>0.9680956650687532</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>896</v>
@@ -3703,19 +3703,19 @@
         <v>944842</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>926613</v>
+        <v>926797</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>959238</v>
+        <v>957995</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9387635653256109</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9206517328248697</v>
+        <v>0.9208347665723634</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9530673412378375</v>
+        <v>0.9518319575667309</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1737</v>
@@ -3724,19 +3724,19 @@
         <v>1812136</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1792041</v>
+        <v>1791049</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1831549</v>
+        <v>1831757</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9461369369333823</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9356449865118799</v>
+        <v>0.9351272643031515</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.956272854207697</v>
+        <v>0.9563810599543323</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>38640</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26616</v>
+        <v>27611</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52876</v>
+        <v>53903</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04690729994786946</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03231070724878574</v>
+        <v>0.03351808954702135</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06418876198414918</v>
+        <v>0.06543489439206902</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -3849,19 +3849,19 @@
         <v>39413</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27931</v>
+        <v>27695</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53554</v>
+        <v>52797</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05111539217231328</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03622468462996469</v>
+        <v>0.03591825950048924</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0694551953520922</v>
+        <v>0.06847367438458267</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>71</v>
@@ -3870,19 +3870,19 @@
         <v>78053</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>61504</v>
+        <v>62685</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>98007</v>
+        <v>99907</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04894181807231941</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03856472779439423</v>
+        <v>0.03930529957812047</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0614537093027756</v>
+        <v>0.06264450745352448</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>785119</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>770883</v>
+        <v>769856</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>797143</v>
+        <v>796148</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9530927000521305</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9358112380158509</v>
+        <v>0.9345651056079309</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9676892927512144</v>
+        <v>0.9664819104529785</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>693</v>
@@ -3920,19 +3920,19 @@
         <v>731646</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>717505</v>
+        <v>718262</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>743128</v>
+        <v>743364</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9488846078276867</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9305448046479076</v>
+        <v>0.9315263256154173</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9637753153700352</v>
+        <v>0.9640817404995108</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1444</v>
@@ -3941,19 +3941,19 @@
         <v>1516765</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1496811</v>
+        <v>1494911</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1533314</v>
+        <v>1532133</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9510581819276805</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9385462906972245</v>
+        <v>0.9373554925464751</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9614352722056058</v>
+        <v>0.9606947004218794</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>24235</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15539</v>
+        <v>15341</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35211</v>
+        <v>35290</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04782884277527605</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03066700738396559</v>
+        <v>0.03027674331676147</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0694898746855782</v>
+        <v>0.06964618580710177</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -4066,19 +4066,19 @@
         <v>29105</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19393</v>
+        <v>19810</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41715</v>
+        <v>42135</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05943517349474702</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03960297875519863</v>
+        <v>0.04045248831656762</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08518505530480962</v>
+        <v>0.08604383285695381</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>48</v>
@@ -4087,19 +4087,19 @@
         <v>53340</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38783</v>
+        <v>39606</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>68561</v>
+        <v>70694</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05353297822590814</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03892296822121042</v>
+        <v>0.03974939102370751</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0688088043463196</v>
+        <v>0.07094998332422726</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>482466</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>471490</v>
+        <v>471411</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>491162</v>
+        <v>491360</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.952171157224724</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9305101253144218</v>
+        <v>0.9303538141928985</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9693329926160345</v>
+        <v>0.9697232566832389</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>430</v>
@@ -4137,19 +4137,19 @@
         <v>460593</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>447983</v>
+        <v>447563</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>470305</v>
+        <v>469888</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.940564826505253</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9148149446951904</v>
+        <v>0.9139561671430462</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9603970212448014</v>
+        <v>0.9595475116834324</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>878</v>
@@ -4158,19 +4158,19 @@
         <v>943058</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>927837</v>
+        <v>925704</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>957615</v>
+        <v>956792</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9464670217740918</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9311911956536804</v>
+        <v>0.9290500166757727</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9610770317787896</v>
+        <v>0.9602506089762924</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>186498</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>161542</v>
+        <v>160774</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>215113</v>
+        <v>214210</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05538535923065231</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04797410385168206</v>
+        <v>0.04774599791237704</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0638832506842969</v>
+        <v>0.06361511397710139</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>216</v>
@@ -4283,19 +4283,19 @@
         <v>243583</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>214335</v>
+        <v>215675</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>276984</v>
+        <v>276833</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06906634860046608</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06077341517985466</v>
+        <v>0.06115344929841632</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07853708375655824</v>
+        <v>0.07849425141434938</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>393</v>
@@ -4304,19 +4304,19 @@
         <v>430081</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>393684</v>
+        <v>389189</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>477085</v>
+        <v>472793</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06238412432695934</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05710469367579439</v>
+        <v>0.0564526120127251</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06920217984496931</v>
+        <v>0.0685796279168029</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3180784</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3152169</v>
+        <v>3153072</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3205740</v>
+        <v>3206508</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9446146407693476</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.936116749315703</v>
+        <v>0.9363848860228986</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9520258961483179</v>
+        <v>0.9522540020876229</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3106</v>
@@ -4354,19 +4354,19 @@
         <v>3283209</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3249808</v>
+        <v>3249959</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3312457</v>
+        <v>3311117</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9309336513995339</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9214629162434418</v>
+        <v>0.9215057485856507</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9392265848201453</v>
+        <v>0.9388465507015836</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6134</v>
@@ -4375,19 +4375,19 @@
         <v>6463994</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6416990</v>
+        <v>6421282</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6500391</v>
+        <v>6504886</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9376158756730406</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9307978201550308</v>
+        <v>0.9314203720831972</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9428953063242056</v>
+        <v>0.9435473879872749</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>82768</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>67414</v>
+        <v>66095</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>100436</v>
+        <v>99600</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1659545702230181</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1351686658112083</v>
+        <v>0.1325237628510149</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2013801106045394</v>
+        <v>0.199703944941212</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>175</v>
@@ -4740,19 +4740,19 @@
         <v>113366</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>98664</v>
+        <v>96753</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>129660</v>
+        <v>129889</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1817993941355556</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1582214835321988</v>
+        <v>0.155157466416785</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2079276157205914</v>
+        <v>0.2082958014855406</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>266</v>
@@ -4761,19 +4761,19 @@
         <v>196135</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>172484</v>
+        <v>172936</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>220161</v>
+        <v>218195</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1747582296060808</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1536848035067806</v>
+        <v>0.1540876045796106</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1961663704343545</v>
+        <v>0.194414288100115</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>415971</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>398303</v>
+        <v>399139</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>431325</v>
+        <v>432644</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.834045429776982</v>
+        <v>0.8340454297769819</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7986198893954606</v>
+        <v>0.8002960550587881</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8648313341887918</v>
+        <v>0.8674762371489853</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>686</v>
@@ -4811,19 +4811,19 @@
         <v>510214</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>493920</v>
+        <v>493691</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>524916</v>
+        <v>526827</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8182006058644443</v>
+        <v>0.8182006058644444</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7920723842794087</v>
+        <v>0.7917041985144594</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8417785164678012</v>
+        <v>0.8448425335832149</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1050</v>
@@ -4832,19 +4832,19 @@
         <v>926185</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>902159</v>
+        <v>904125</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>949836</v>
+        <v>949384</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8252417703939193</v>
+        <v>0.8252417703939192</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8038336295656456</v>
+        <v>0.8055857118998849</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8463151964932193</v>
+        <v>0.8459123954203894</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>131637</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>111583</v>
+        <v>110398</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>155287</v>
+        <v>155747</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1371024763678723</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1162154929658273</v>
+        <v>0.1149817136082818</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1617339679810074</v>
+        <v>0.1622128551014672</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>243</v>
@@ -4957,19 +4957,19 @@
         <v>148074</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>129659</v>
+        <v>131262</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>165730</v>
+        <v>167651</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1327009655167295</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.116197965356219</v>
+        <v>0.1176338855220392</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1485240611611538</v>
+        <v>0.1502456720517254</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>383</v>
@@ -4978,19 +4978,19 @@
         <v>279711</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>251952</v>
+        <v>251285</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>312664</v>
+        <v>307518</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1347366497783223</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1213651224365351</v>
+        <v>0.1210435650930395</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1506098886329184</v>
+        <v>0.1481309613189198</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>828500</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>804850</v>
+        <v>804390</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>848554</v>
+        <v>849739</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8628975236321278</v>
+        <v>0.8628975236321277</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8382660320189929</v>
+        <v>0.8377871448985327</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8837845070341728</v>
+        <v>0.8850182863917182</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1364</v>
@@ -5028,19 +5028,19 @@
         <v>967775</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>950119</v>
+        <v>948198</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>986190</v>
+        <v>984587</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8672990344832703</v>
+        <v>0.8672990344832704</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8514759388388461</v>
+        <v>0.8497543279482751</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8838020346437812</v>
+        <v>0.8823661144779609</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2134</v>
@@ -5049,19 +5049,19 @@
         <v>1796275</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1763322</v>
+        <v>1768468</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1824034</v>
+        <v>1824701</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8652633502216777</v>
+        <v>0.8652633502216776</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8493901113670815</v>
+        <v>0.8518690386810801</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8786348775634648</v>
+        <v>0.8789564349069606</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>84326</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>68197</v>
+        <v>69187</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>105772</v>
+        <v>104086</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08058112727114165</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06516827229371171</v>
+        <v>0.06611385737617259</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1010738084550504</v>
+        <v>0.09946329896944932</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>145</v>
@@ -5174,19 +5174,19 @@
         <v>87088</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>73647</v>
+        <v>72737</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>101960</v>
+        <v>103490</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.08312809713622188</v>
+        <v>0.08312809713622191</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07029800878546541</v>
+        <v>0.0694296679930957</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09732330554626976</v>
+        <v>0.09878399266305296</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>240</v>
@@ -5195,19 +5195,19 @@
         <v>171415</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>152160</v>
+        <v>149974</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>198736</v>
+        <v>196718</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08185531906089565</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07266035199532621</v>
+        <v>0.07161686779433174</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09490193023826748</v>
+        <v>0.09393845790828094</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>962153</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>940707</v>
+        <v>942393</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>978282</v>
+        <v>977292</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9194188727288584</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8989261915449499</v>
+        <v>0.9005367010305507</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9348317277062884</v>
+        <v>0.9338861426238273</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1371</v>
@@ -5245,19 +5245,19 @@
         <v>960554</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>945682</v>
+        <v>944152</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>973995</v>
+        <v>974905</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9168719028637781</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9026766944537309</v>
+        <v>0.9012160073369455</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9297019912145345</v>
+        <v>0.930570332006904</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2305</v>
@@ -5266,19 +5266,19 @@
         <v>1922706</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1895385</v>
+        <v>1897403</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1941961</v>
+        <v>1944147</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9181446809391044</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9050980697617325</v>
+        <v>0.9060615420917191</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9273396480046738</v>
+        <v>0.9283831322056683</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>79862</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>62572</v>
+        <v>64991</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>97395</v>
+        <v>99111</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08183207104354295</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06411535945798878</v>
+        <v>0.06659359463325014</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09979716140995328</v>
+        <v>0.101555451179889</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>114</v>
@@ -5391,19 +5391,19 @@
         <v>74334</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>61979</v>
+        <v>61304</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>89065</v>
+        <v>90023</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0816544347217729</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06808260944574875</v>
+        <v>0.06734111267428665</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09783657850526753</v>
+        <v>0.09888842141345287</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>205</v>
@@ -5412,19 +5412,19 @@
         <v>154196</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>132073</v>
+        <v>134509</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>175155</v>
+        <v>177365</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08174634101708003</v>
+        <v>0.08174634101708002</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07001816973141801</v>
+        <v>0.07130924462346255</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09285777617036285</v>
+        <v>0.09402916793769561</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>896067</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>878534</v>
+        <v>876818</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>913357</v>
+        <v>910938</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9181679289564569</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.900202838590046</v>
+        <v>0.898444548820111</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9358846405420113</v>
+        <v>0.9334064053667499</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1210</v>
@@ -5462,19 +5462,19 @@
         <v>836011</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>821280</v>
+        <v>820322</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>848366</v>
+        <v>849041</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9183455652782271</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9021634214947325</v>
+        <v>0.9011115785865469</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9319173905542512</v>
+        <v>0.9326588873257133</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2066</v>
@@ -5483,19 +5483,19 @@
         <v>1732078</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1711119</v>
+        <v>1708909</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1754201</v>
+        <v>1751765</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9182536589829201</v>
+        <v>0.91825365898292</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9071422238296373</v>
+        <v>0.9059708320623044</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9299818302685842</v>
+        <v>0.9286907553765382</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>378594</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>345411</v>
+        <v>343762</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>419618</v>
+        <v>419245</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1087512329482383</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09921931530980878</v>
+        <v>0.09874570344613898</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.12053548511519</v>
+        <v>0.1204281278582047</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>677</v>
@@ -5608,19 +5608,19 @@
         <v>422863</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>391417</v>
+        <v>389695</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>455853</v>
+        <v>453519</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1143671522388564</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1058624389813012</v>
+        <v>0.1053965708897536</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1232896753670805</v>
+        <v>0.1226583712456322</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1094</v>
@@ -5629,19 +5629,19 @@
         <v>801457</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>749567</v>
+        <v>751745</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>851446</v>
+        <v>852539</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1116437328479268</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.104415384304485</v>
+        <v>0.104718799071667</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1186072443482354</v>
+        <v>0.1187595748164042</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3102690</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3061666</v>
+        <v>3062039</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3135873</v>
+        <v>3137522</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8912487670517616</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.87946451488481</v>
+        <v>0.8795718721417952</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9007806846901912</v>
+        <v>0.9012542965538609</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4631</v>
@@ -5679,19 +5679,19 @@
         <v>3274553</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3241563</v>
+        <v>3243897</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3305999</v>
+        <v>3307721</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8856328477611435</v>
+        <v>0.8856328477611436</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8767103246329195</v>
+        <v>0.8773416287543676</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8941375610186988</v>
+        <v>0.8946034291102463</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7555</v>
@@ -5700,19 +5700,19 @@
         <v>6377244</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6327255</v>
+        <v>6326162</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6429134</v>
+        <v>6426956</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8883562671520733</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8813927556517647</v>
+        <v>0.8812404251835957</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.895584615695515</v>
+        <v>0.895281200928333</v>
       </c>
     </row>
     <row r="18">
